--- a/Semiconductors.xlsx
+++ b/Semiconductors.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasmus/Desktop/Financial Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EE2D95-854F-B243-9D26-CCF21FA33A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C16A77-8EC7-4FAF-941F-35E5D40E17F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="1380" windowWidth="21860" windowHeight="17160" xr2:uid="{735B6C94-CC57-4CB9-95AA-FA4CA3A07A07}"/>
+    <workbookView minimized="1" xWindow="7995" yWindow="1200" windowWidth="18690" windowHeight="14445" xr2:uid="{735B6C94-CC57-4CB9-95AA-FA4CA3A07A07}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Portfolio" sheetId="2" r:id="rId2"/>
+    <sheet name="Dictionary" sheetId="3" r:id="rId3"/>
+    <sheet name="Industry" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +38,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Kipp</author>
+  </authors>
+  <commentList>
+    <comment ref="Y9" authorId="0" shapeId="0" xr:uid="{7ED3F859-B43E-4CFA-B2DD-CC86336259BA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kipp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+software, semiconductor designs, intellectual property, other services
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="166">
   <si>
     <t>Company</t>
   </si>
@@ -186,9 +223,6 @@
     <t>ADI</t>
   </si>
   <si>
-    <t>INTC</t>
-  </si>
-  <si>
     <t>LRCX</t>
   </si>
   <si>
@@ -249,9 +283,6 @@
     <t>Haviv Ilan</t>
   </si>
   <si>
-    <t>IDMs</t>
-  </si>
-  <si>
     <t>Fabless</t>
   </si>
   <si>
@@ -279,9 +310,6 @@
     <t>C. Fouquet</t>
   </si>
   <si>
-    <t>advanced systems equipment</t>
-  </si>
-  <si>
     <t>Size</t>
   </si>
   <si>
@@ -300,9 +328,6 @@
     <t>Lightmatter</t>
   </si>
   <si>
-    <t>Startups:</t>
-  </si>
-  <si>
     <t>using light</t>
   </si>
   <si>
@@ -322,28 +347,244 @@
   </si>
   <si>
     <t>000660.KS</t>
+  </si>
+  <si>
+    <t>Semiconductor</t>
+  </si>
+  <si>
+    <t>Transistor</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>Wafer</t>
+  </si>
+  <si>
+    <t>Integrated Circuit</t>
+  </si>
+  <si>
+    <t>Photolithography</t>
+  </si>
+  <si>
+    <t>Doping</t>
+  </si>
+  <si>
+    <t>MOSFET</t>
+  </si>
+  <si>
+    <t>Epitaxy</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>Substrate</t>
+  </si>
+  <si>
+    <t>PN Junction</t>
+  </si>
+  <si>
+    <t>Conductivity</t>
+  </si>
+  <si>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>Semiconductor Packaging</t>
+  </si>
+  <si>
+    <t>A material with electrical conductivity between conductor and an insulator</t>
+  </si>
+  <si>
+    <t>A semiconductor device used to amplify or switch electronic signals</t>
+  </si>
+  <si>
+    <t>Device that allos current to flow in one direction only</t>
+  </si>
+  <si>
+    <t>Thin slice of semiconductor material, often silicon, used as the base for microchips</t>
+  </si>
+  <si>
+    <t>Set of electronic circuits on a single chip of semiconductor material</t>
+  </si>
+  <si>
+    <t>Process used to pattern a layer of a semiconductor</t>
+  </si>
+  <si>
+    <t>Process of intentionally introducing impurities into a semiconductor to modify its electrical properties</t>
+  </si>
+  <si>
+    <t>Metal-Oxide Semiconductor Field Effect Transistor - type of transistor used for amplifying or switching electronic signals</t>
+  </si>
+  <si>
+    <t>Process of growing a crystalline layer of semiconductor material on a substrate</t>
+  </si>
+  <si>
+    <t>The terminal of a transistor that controls the flow of current between the source and drain</t>
+  </si>
+  <si>
+    <t>The base material on which a semiconductor device is fabricated</t>
+  </si>
+  <si>
+    <t>Bounday between P-type and N-type semiconductors that allows current to flow in one direction</t>
+  </si>
+  <si>
+    <t>The ability of a material to conduct energy</t>
+  </si>
+  <si>
+    <t>A component that stores electrical energy in an electric field</t>
+  </si>
+  <si>
+    <t>The process of enclosing a semiconductor chip in a protective case and providing electrical connections to it</t>
+  </si>
+  <si>
+    <t>System on Chip</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>Intellectual Property</t>
+  </si>
+  <si>
+    <t>ASIC</t>
+  </si>
+  <si>
+    <t>FPGA</t>
+  </si>
+  <si>
+    <t>Analog vs Digital</t>
+  </si>
+  <si>
+    <t>Process Node</t>
+  </si>
+  <si>
+    <t>Yield</t>
+  </si>
+  <si>
+    <t>Moores law</t>
+  </si>
+  <si>
+    <t>EDA</t>
+  </si>
+  <si>
+    <t>Refers to companies that design semiconductor chips but outsource the actual manufacturing to a foundry withjout having their own semiconductor manufacturing facilities</t>
+  </si>
+  <si>
+    <t>A company that manufactures chips designed by fabless companies or other clients like TSMC or GlobalFoundries</t>
+  </si>
+  <si>
+    <t>Single chip that integrates all components of a computer or other electronic systems, including CPU, memory and I/O</t>
+  </si>
+  <si>
+    <t>Technology used in manufacturing, often measured in nanometers(nm). Smaller nodes like 5nm are generally more advanced and efficient</t>
+  </si>
+  <si>
+    <t>refers to pre-designed  and licensed circuit blocks or technologies, like cpu cores that companies use in their chip designs</t>
+  </si>
+  <si>
+    <t>Application-Specific Integrated Circuit - customized semiconductor designed to perform a specific task or function, such as cryptocurrency mining or network processing</t>
+  </si>
+  <si>
+    <t>Field-Programmable Gate Array - A semiconductor device that can be configured by the user to perform a wide variety of tasks, often used in prototyping or specialized application</t>
+  </si>
+  <si>
+    <t>Digital refers to discrete, binary signals used in most modern semiconductors</t>
+  </si>
+  <si>
+    <t>Refers to specidic semiconductor manufacturing process, often tied to the smallest feature size (7nm, 10nm) achievable in production</t>
+  </si>
+  <si>
+    <t>The percentage of working chips produced from a batch of wafers. Higher yield indicates more functional chips per wafer</t>
+  </si>
+  <si>
+    <t>The observation that the number of transistors on a chip tends to double every two years leading to an increase in performance and a decrease in cost</t>
+  </si>
+  <si>
+    <t>Electronic Design Automation - Software tools used by engineers to design, simulate and test semiconductor chips</t>
+  </si>
+  <si>
+    <t>Integrated Data Management System - managing technical data throughout the semiconductor design, manufactuing and testing processes</t>
+  </si>
+  <si>
+    <t>Smaller:</t>
+  </si>
+  <si>
+    <t>EPE</t>
+  </si>
+  <si>
+    <t>Edge Placement Error - the difference between the intended and the printed features of the layout of a microchip (ASML)</t>
+  </si>
+  <si>
+    <t>Equipment provider</t>
+  </si>
+  <si>
+    <t>SIA</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>quallcom.com</t>
+  </si>
+  <si>
+    <t>C. Renno Amon</t>
+  </si>
+  <si>
+    <t>Intelligent Computing</t>
+  </si>
+  <si>
+    <t>P/E</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>Last update</t>
+  </si>
+  <si>
+    <t>Next earnings</t>
+  </si>
+  <si>
+    <t>2022 EV/E</t>
+  </si>
+  <si>
+    <t>2023 EV/E</t>
+  </si>
+  <si>
+    <t>2024 E</t>
+  </si>
+  <si>
+    <t>2025 E</t>
+  </si>
+  <si>
+    <t>2026 E</t>
+  </si>
+  <si>
+    <t>2027 E</t>
+  </si>
+  <si>
+    <t>2024 RevG</t>
+  </si>
+  <si>
+    <t>INTC US</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="186"/>
     </font>
     <font>
       <sz val="11"/>
@@ -385,12 +626,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="186"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -412,47 +698,52 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -469,6 +760,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>518949</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>157345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36331F1E-54EF-A9DB-BF27-73262B2B5D5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="610914" y="164225"/>
+          <a:ext cx="4795345" cy="2292258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -787,452 +1127,560 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE21DC86-AFE2-4C1C-A484-F9CB4A3AF3F8}">
-  <dimension ref="B2:O46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE21DC86-AFE2-4C1C-A484-F9CB4A3AF3F8}">
+  <dimension ref="B2:AA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="3"/>
-    <col min="10" max="10" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="2"/>
-    <col min="13" max="13" width="29.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.1640625" style="2"/>
+    <col min="1" max="1" width="3" style="6" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="15" customWidth="1"/>
+    <col min="5" max="17" width="14.85546875" style="14" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="16" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" style="14" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="14"/>
+    <col min="22" max="22" width="12.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="6"/>
+    <col min="25" max="25" width="29.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.28515625" style="6" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:27" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" s="14"/>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="14"/>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5" s="14"/>
+    </row>
+    <row r="6" spans="2:27" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="15">
+        <v>713.1</v>
+      </c>
+      <c r="E6" s="18">
+        <v>240248</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="T6" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z6" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="15">
+        <v>137.18</v>
+      </c>
+      <c r="E7" s="18">
+        <v>222214</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="S7" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="T7" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="U7" s="14">
+        <v>1969</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="W7" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="Y7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="15">
+        <v>198</v>
+      </c>
+      <c r="E8" s="18">
+        <v>180521</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18">
+        <v>34</v>
+      </c>
+      <c r="R8" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="S8" s="6"/>
+      <c r="T8" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="U8" s="14">
+        <v>1930</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="W8" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="15">
+        <v>164.56</v>
+      </c>
+      <c r="E9" s="18">
+        <v>182826</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="15">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="R9" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S9" s="16">
+        <v>0</v>
+      </c>
+      <c r="T9" s="16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U9" s="14">
+        <v>1985</v>
+      </c>
+      <c r="V9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="W9" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y9" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z9" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA9" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" s="14"/>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y11" s="14"/>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y12" s="14"/>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y13" s="14"/>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="15">
+        <v>22.14</v>
+      </c>
+      <c r="Y14" s="14"/>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y15" s="14"/>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y16" s="14"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y17" s="14"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y18" s="14"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y19" s="14"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y20" s="14"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y21" s="14"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B32" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="C32" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="11">
-        <v>713.1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>240248</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="11">
-        <v>137.18</v>
-      </c>
-      <c r="E7" s="8">
-        <v>222214</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1969</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="11">
-        <v>198</v>
-      </c>
-      <c r="E8" s="8">
-        <v>180521</v>
-      </c>
-      <c r="F8" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1930</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B30" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B31" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B32" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B34" s="4"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B40" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B41" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B42" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B45" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="B46" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N46" s="15" t="s">
-        <v>86</v>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B33" s="20"/>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B34" s="10"/>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B45" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B46" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y46" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z46" s="19" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1240,10 +1688,13 @@
     <hyperlink ref="B8" r:id="rId1" xr:uid="{B4C30487-2386-48B5-BC35-57AE0B427446}"/>
     <hyperlink ref="B7" r:id="rId2" xr:uid="{BA6EEE5F-BC2F-48AA-B69D-22C198DE6E0F}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{4082B68D-A31A-4923-8B7C-88B6E878C55B}"/>
-    <hyperlink ref="N46" r:id="rId4" xr:uid="{77589FE6-ED44-4B9B-835D-2C2A1F299A48}"/>
-    <hyperlink ref="N6" r:id="rId5" xr:uid="{10D205E2-D156-B14D-8C9C-D43EBD7802E9}"/>
+    <hyperlink ref="Z46" r:id="rId4" xr:uid="{77589FE6-ED44-4B9B-835D-2C2A1F299A48}"/>
+    <hyperlink ref="Z6" r:id="rId5" xr:uid="{10D205E2-D156-B14D-8C9C-D43EBD7802E9}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{DB4D58A9-353A-4894-86CC-8F96838F46F7}"/>
+    <hyperlink ref="Z9" r:id="rId7" xr:uid="{62391CAA-727D-4EB5-9594-B98D3CF875D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -1255,39 +1706,355 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="12" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>73</v>
+      <c r="H2" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06702C0-4D20-4B5D-8A88-4EB92861938A}">
+  <dimension ref="B2:E33"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E6F4AB-3DDA-4F20-B8BD-3E0EFF5E81D4}">
+  <dimension ref="B17:D21"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="7">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="8">
+        <v>526.88499999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="7">
+        <v>2024</v>
+      </c>
+      <c r="C19" s="8">
+        <v>626.86900000000003</v>
+      </c>
+      <c r="D19" s="9">
+        <f>+C19/C18-1</f>
+        <v>0.18976436983402456</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C20" s="8">
+        <v>697.18399999999997</v>
+      </c>
+      <c r="D20" s="9">
+        <f>+C20/C19-1</f>
+        <v>0.11216857110496758</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Semiconductors.xlsx
+++ b/Semiconductors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Desktop\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Documents\GitHub\Financial-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C16A77-8EC7-4FAF-941F-35E5D40E17F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DED55E1-867A-43D4-83CE-C95D3E5EE883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7995" yWindow="1200" windowWidth="18690" windowHeight="14445" xr2:uid="{735B6C94-CC57-4CB9-95AA-FA4CA3A07A07}"/>
+    <workbookView xWindow="6375" yWindow="1740" windowWidth="18690" windowHeight="14445" xr2:uid="{735B6C94-CC57-4CB9-95AA-FA4CA3A07A07}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>Kipp</author>
   </authors>
   <commentList>
-    <comment ref="Y9" authorId="0" shapeId="0" xr:uid="{7ED3F859-B43E-4CFA-B2DD-CC86336259BA}">
+    <comment ref="W9" authorId="0" shapeId="0" xr:uid="{7ED3F859-B43E-4CFA-B2DD-CC86336259BA}">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="170">
   <si>
     <t>Company</t>
   </si>
@@ -103,9 +103,6 @@
     <t>CEO</t>
   </si>
   <si>
-    <t>2024E</t>
-  </si>
-  <si>
     <t>Nvidia</t>
   </si>
   <si>
@@ -550,12 +547,6 @@
     <t>Next earnings</t>
   </si>
   <si>
-    <t>2022 EV/E</t>
-  </si>
-  <si>
-    <t>2023 EV/E</t>
-  </si>
-  <si>
     <t>2024 E</t>
   </si>
   <si>
@@ -572,6 +563,27 @@
   </si>
   <si>
     <t>INTC US</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>J.Holthaus</t>
+  </si>
+  <si>
+    <t>intel.com</t>
+  </si>
+  <si>
+    <t>trash</t>
+  </si>
+  <si>
+    <t>EV/E</t>
+  </si>
+  <si>
+    <t>WFE</t>
+  </si>
+  <si>
+    <t>Wafer Fab Equipment</t>
   </si>
 </sst>
 </file>
@@ -700,7 +712,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -743,6 +755,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -800,6 +819,50 @@
         <a:xfrm>
           <a:off x="610914" y="164225"/>
           <a:ext cx="4795345" cy="2292258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>121387</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>368029</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>155916</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21812F88-81C5-98CC-7885-7681419156A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6230525" y="328449"/>
+          <a:ext cx="3912125" cy="3604622"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1128,13 +1191,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE21DC86-AFE2-4C1C-A484-F9CB4A3AF3F8}">
-  <dimension ref="B2:AA46"/>
+  <dimension ref="B2:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1143,20 +1206,20 @@
     <col min="2" max="2" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="14" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="15" customWidth="1"/>
-    <col min="5" max="17" width="14.85546875" style="14" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="16" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" style="14" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="14"/>
-    <col min="22" max="22" width="12.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" style="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="6"/>
-    <col min="25" max="25" width="29.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.28515625" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="5" max="8" width="14.85546875" style="18" customWidth="1"/>
+    <col min="9" max="16" width="14.85546875" style="14" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="16" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" style="14" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="14"/>
+    <col min="21" max="21" width="12.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.28515625" style="6" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:25" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1166,106 +1229,130 @@
       <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="N2" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="14"/>
+    </row>
+    <row r="4" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="15">
+        <v>197</v>
+      </c>
+      <c r="E4" s="18">
+        <v>1021642</v>
+      </c>
+      <c r="F4" s="18">
+        <v>56141</v>
+      </c>
+      <c r="G4" s="18">
+        <v>965501</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="P2" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z2" s="11" t="s">
+      <c r="W4" s="14"/>
+    </row>
+    <row r="5" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="15">
+        <v>242</v>
+      </c>
+      <c r="E5" s="18">
+        <v>1133082.25</v>
+      </c>
+      <c r="F5" s="18">
+        <v>-58218</v>
+      </c>
+      <c r="G5" s="18">
+        <v>1191300.25</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="W5" s="14"/>
+    </row>
+    <row r="6" spans="2:25" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y3" s="14"/>
-    </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y4" s="14"/>
-    </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y5" s="14"/>
-    </row>
-    <row r="6" spans="2:27" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="D6" s="15">
         <v>713.1</v>
@@ -1273,10 +1360,15 @@
       <c r="E6" s="18">
         <v>240248</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="F6" s="18">
+        <v>411</v>
+      </c>
+      <c r="G6" s="18">
+        <v>297483</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>163</v>
+      </c>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
@@ -1284,35 +1376,34 @@
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="16">
+      <c r="Q6" s="16">
         <v>0.05</v>
       </c>
-      <c r="T6" s="16">
+      <c r="S6" s="16">
         <v>0.5</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="V6" s="14" t="s">
         <v>76</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y6" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z6" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="X6" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y6" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AA6" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="15">
         <v>137.18</v>
@@ -1320,10 +1411,15 @@
       <c r="E7" s="18">
         <v>222214</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="F7" s="18">
+        <v>2824</v>
+      </c>
+      <c r="G7" s="18">
+        <v>219390</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>163</v>
+      </c>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
@@ -1331,18 +1427,20 @@
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
+      <c r="Q7" s="16">
+        <v>0.08</v>
+      </c>
       <c r="R7" s="16">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="S7" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="T7" s="16">
         <v>0.5</v>
       </c>
-      <c r="U7" s="14">
+      <c r="T7" s="14">
         <v>1969</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="V7" s="14" t="s">
         <v>73</v>
@@ -1350,19 +1448,16 @@
       <c r="W7" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="Y7" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA7" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="Y7" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="15">
         <v>198</v>
@@ -1370,49 +1465,53 @@
       <c r="E8" s="18">
         <v>180521</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="F8" s="18">
+        <v>-4092</v>
+      </c>
+      <c r="G8" s="18">
+        <v>178284</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>163</v>
+      </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18">
+      <c r="P8" s="18">
         <v>34</v>
       </c>
-      <c r="R8" s="16">
+      <c r="Q8" s="16">
         <v>0.04</v>
       </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="16">
+      <c r="R8" s="6"/>
+      <c r="S8" s="16">
         <v>0.6</v>
       </c>
-      <c r="U8" s="14">
+      <c r="T8" s="14">
         <v>1930</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="V8" s="14" t="s">
         <v>67</v>
       </c>
       <c r="W8" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y8" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA8" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="2:27" ht="13.5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="15">
         <v>164.56</v>
@@ -1420,267 +1519,315 @@
       <c r="E9" s="18">
         <v>182826</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="F9" s="18">
+        <v>-1334</v>
+      </c>
+      <c r="G9" s="18">
+        <v>184160.16</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>163</v>
+      </c>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="15">
+      <c r="P9" s="15">
         <v>16.010000000000002</v>
       </c>
+      <c r="Q9" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="R9" s="16">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="S9" s="16">
-        <v>0</v>
-      </c>
-      <c r="T9" s="16">
         <v>0.56000000000000005</v>
       </c>
-      <c r="U9" s="14">
+      <c r="T9" s="14">
         <v>1985</v>
       </c>
+      <c r="U9" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="V9" s="14" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="W9" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="Y9" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z9" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA9" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
+      <c r="X9" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="W10" s="14"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Y10" s="14"/>
-    </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
+      <c r="W11" s="14"/>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="Y11" s="14"/>
-    </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B12" s="7" t="s">
+      <c r="W12" s="14"/>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="Y12" s="14"/>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
+      <c r="W13" s="14"/>
+    </row>
+    <row r="14" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y13" s="14"/>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B14" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="C14" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D14" s="15">
         <v>22.14</v>
       </c>
-      <c r="Y14" s="14"/>
-    </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="E14" s="18">
+        <v>95202</v>
+      </c>
+      <c r="F14" s="18">
+        <v>-24825</v>
+      </c>
+      <c r="G14" s="18">
+        <v>120027</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="O14" s="16">
+        <v>0</v>
+      </c>
+      <c r="P14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="R14" s="16">
+        <v>-0.06</v>
+      </c>
+      <c r="S14" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="T14" s="14">
+        <v>1968</v>
+      </c>
+      <c r="U14" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="V14" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="W14" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="X14" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="W15" s="14"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C16" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="Y15" s="14"/>
-    </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
+      <c r="W16" s="14"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="Y16" s="14"/>
-    </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B17" s="7" t="s">
+      <c r="W17" s="14"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C18" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="Y17" s="14"/>
-    </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="Y18" s="14"/>
-    </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B19" s="7" t="s">
+      <c r="W19" s="14"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="Y19" s="14"/>
-    </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B20" s="7" t="s">
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="Y20" s="14"/>
-    </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B21" s="7" t="s">
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="Y21" s="14"/>
-    </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B22" s="7" t="s">
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C23" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B23" s="7" t="s">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B24" s="7" t="s">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B25" s="7" t="s">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C26" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B26" s="7" t="s">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C27" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B27" s="7" t="s">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C28" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B28" s="7" t="s">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C29" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B29" s="7" t="s">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C30" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B30" s="7" t="s">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B33" s="20"/>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B34" s="10"/>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B45" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" ht="13.5" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="W46" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="Y46" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z46" s="19" t="s">
-        <v>83</v>
+      <c r="X46" s="19" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1688,13 +1835,18 @@
     <hyperlink ref="B8" r:id="rId1" xr:uid="{B4C30487-2386-48B5-BC35-57AE0B427446}"/>
     <hyperlink ref="B7" r:id="rId2" xr:uid="{BA6EEE5F-BC2F-48AA-B69D-22C198DE6E0F}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{4082B68D-A31A-4923-8B7C-88B6E878C55B}"/>
-    <hyperlink ref="Z46" r:id="rId4" xr:uid="{77589FE6-ED44-4B9B-835D-2C2A1F299A48}"/>
-    <hyperlink ref="Z6" r:id="rId5" xr:uid="{10D205E2-D156-B14D-8C9C-D43EBD7802E9}"/>
+    <hyperlink ref="X46" r:id="rId4" xr:uid="{77589FE6-ED44-4B9B-835D-2C2A1F299A48}"/>
+    <hyperlink ref="X6" r:id="rId5" xr:uid="{10D205E2-D156-B14D-8C9C-D43EBD7802E9}"/>
     <hyperlink ref="B9" r:id="rId6" xr:uid="{DB4D58A9-353A-4894-86CC-8F96838F46F7}"/>
-    <hyperlink ref="Z9" r:id="rId7" xr:uid="{62391CAA-727D-4EB5-9594-B98D3CF875D3}"/>
+    <hyperlink ref="X9" r:id="rId7" xr:uid="{62391CAA-727D-4EB5-9594-B98D3CF875D3}"/>
+    <hyperlink ref="B14" r:id="rId8" xr:uid="{09E5A0ED-9E83-40A4-9AD8-690D6FFC9903}"/>
+    <hyperlink ref="X14" r:id="rId9" xr:uid="{8CD8FABA-87BC-4A66-8C67-1D4D49EBD343}"/>
+    <hyperlink ref="B4" r:id="rId10" xr:uid="{57F11887-FE02-4E2B-A0BA-FDB97CC13015}"/>
+    <hyperlink ref="B5" r:id="rId11" xr:uid="{CB070B57-B863-46E0-B29A-E5F50539B390}"/>
+    <hyperlink ref="B10" r:id="rId12" xr:uid="{2D849DA9-67F2-4140-B503-355E8CD8E679}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId8"/>
+  <legacyDrawing r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -1717,25 +1869,25 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1745,10 +1897,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06702C0-4D20-4B5D-8A88-4EB92861938A}">
-  <dimension ref="B2:E33"/>
+  <dimension ref="B2:E34"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1760,234 +1912,242 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>146</v>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2001,7 +2161,7 @@
   <dimension ref="B17:D21"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2011,10 +2171,10 @@
   <sheetData>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">

--- a/Semiconductors.xlsx
+++ b/Semiconductors.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Documents\GitHub\Financial-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DED55E1-867A-43D4-83CE-C95D3E5EE883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472AADAD-02E2-4E64-B58C-00BC9B504AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="1740" windowWidth="18690" windowHeight="14445" xr2:uid="{735B6C94-CC57-4CB9-95AA-FA4CA3A07A07}"/>
+    <workbookView xWindow="6045" yWindow="765" windowWidth="19515" windowHeight="14340" xr2:uid="{735B6C94-CC57-4CB9-95AA-FA4CA3A07A07}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Portfolio" sheetId="2" r:id="rId2"/>
-    <sheet name="Dictionary" sheetId="3" r:id="rId3"/>
-    <sheet name="Industry" sheetId="4" r:id="rId4"/>
+    <sheet name="Private" sheetId="8" r:id="rId2"/>
+    <sheet name="Portfolio" sheetId="2" r:id="rId3"/>
+    <sheet name="Dictionary" sheetId="3" r:id="rId4"/>
+    <sheet name="Industry" sheetId="4" r:id="rId5"/>
+    <sheet name="Bankrupts" sheetId="5" r:id="rId6"/>
+    <sheet name="Acquisitions" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,7 @@
     <author>Kipp</author>
   </authors>
   <commentList>
-    <comment ref="W9" authorId="0" shapeId="0" xr:uid="{7ED3F859-B43E-4CFA-B2DD-CC86336259BA}">
+    <comment ref="T9" authorId="0" shapeId="0" xr:uid="{7ED3F859-B43E-4CFA-B2DD-CC86336259BA}">
       <text>
         <r>
           <rPr>
@@ -74,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="202">
   <si>
     <t>Company</t>
   </si>
@@ -190,24 +193,9 @@
     <t>Renesas Electronics</t>
   </si>
   <si>
-    <t>NVDA</t>
-  </si>
-  <si>
     <t>TSM</t>
   </si>
   <si>
-    <t>AVGO</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>TXN</t>
-  </si>
-  <si>
-    <t>QCOM</t>
-  </si>
-  <si>
     <t>AMAT</t>
   </si>
   <si>
@@ -331,9 +319,6 @@
     <t>Website</t>
   </si>
   <si>
-    <t>ASML</t>
-  </si>
-  <si>
     <t>asml.com</t>
   </si>
   <si>
@@ -505,9 +490,6 @@
     <t>Integrated Data Management System - managing technical data throughout the semiconductor design, manufactuing and testing processes</t>
   </si>
   <si>
-    <t>Smaller:</t>
-  </si>
-  <si>
     <t>EPE</t>
   </si>
   <si>
@@ -550,18 +532,6 @@
     <t>2024 E</t>
   </si>
   <si>
-    <t>2025 E</t>
-  </si>
-  <si>
-    <t>2026 E</t>
-  </si>
-  <si>
-    <t>2027 E</t>
-  </si>
-  <si>
-    <t>2024 RevG</t>
-  </si>
-  <si>
     <t>INTC US</t>
   </si>
   <si>
@@ -584,13 +554,145 @@
   </si>
   <si>
     <t>Wafer Fab Equipment</t>
+  </si>
+  <si>
+    <t>37x</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>36x</t>
+  </si>
+  <si>
+    <t>16x</t>
+  </si>
+  <si>
+    <t>34x</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Richard A. Norwitt</t>
+  </si>
+  <si>
+    <t>amphenol.com</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>0x</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>17x</t>
+  </si>
+  <si>
+    <t>43x</t>
+  </si>
+  <si>
+    <t>118x</t>
+  </si>
+  <si>
+    <t>103x</t>
+  </si>
+  <si>
+    <t>45x</t>
+  </si>
+  <si>
+    <t>96x</t>
+  </si>
+  <si>
+    <t>93x</t>
+  </si>
+  <si>
+    <t>26x</t>
+  </si>
+  <si>
+    <t>30x</t>
+  </si>
+  <si>
+    <t>San Jose</t>
+  </si>
+  <si>
+    <t>Hock E. Tan</t>
+  </si>
+  <si>
+    <t>broadcom.com</t>
+  </si>
+  <si>
+    <t>NVDA US</t>
+  </si>
+  <si>
+    <t>fabless</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>C.C. Wei</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>tsmc.com</t>
+  </si>
+  <si>
+    <t>AVGO US</t>
+  </si>
+  <si>
+    <t>ASML US</t>
+  </si>
+  <si>
+    <t>AMD US</t>
+  </si>
+  <si>
+    <t>TXN US</t>
+  </si>
+  <si>
+    <t>QCOM US</t>
+  </si>
+  <si>
+    <t>21x</t>
+  </si>
+  <si>
+    <t>22x</t>
+  </si>
+  <si>
+    <t>Gary E. Dickerson</t>
+  </si>
+  <si>
+    <t>manufacturing equipment provider</t>
+  </si>
+  <si>
+    <t>appliedmaterials.com</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>CPUs, GPUs etc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,13 +792,28 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -712,7 +829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -761,6 +878,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1191,666 +1319,1067 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE21DC86-AFE2-4C1C-A484-F9CB4A3AF3F8}">
-  <dimension ref="B2:Y46"/>
+  <dimension ref="A2:W46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="6" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="15" customWidth="1"/>
-    <col min="5" max="8" width="14.85546875" style="18" customWidth="1"/>
-    <col min="9" max="16" width="14.85546875" style="14" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="16" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" style="14" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="14"/>
-    <col min="21" max="21" width="12.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16" style="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="29.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.28515625" style="6" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="3" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="15" customWidth="1"/>
+    <col min="6" max="9" width="14.85546875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="19" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="18" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="14" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="16" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" style="14" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="14"/>
+    <col min="18" max="18" width="12.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" style="6" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="T3" s="14"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>+A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="15">
+        <v>197</v>
+      </c>
+      <c r="F4" s="18">
+        <v>1021642</v>
+      </c>
+      <c r="G4" s="18">
+        <v>56141</v>
+      </c>
+      <c r="H4" s="18">
+        <v>965501</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" s="24">
+        <v>45762</v>
+      </c>
+      <c r="L4" s="18">
+        <v>36479</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="N4" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O4" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="P4" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>1987</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="U4" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f t="shared" ref="A5:A32" si="0">+A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="15">
+        <v>214.17</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1003018</v>
+      </c>
+      <c r="G5" s="18">
+        <v>-58218</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1191300.25</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="24">
+        <v>45720</v>
+      </c>
+      <c r="L5" s="18">
+        <v>12445</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N5" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="P5" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>2018</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="U5" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="15">
+        <v>713.1</v>
+      </c>
+      <c r="F6" s="18">
+        <v>240248</v>
+      </c>
+      <c r="G6" s="18">
+        <v>411</v>
+      </c>
+      <c r="H6" s="18">
+        <v>297483</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K6" s="24">
+        <v>45762</v>
+      </c>
+      <c r="L6" s="18">
+        <v>6595</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="N6" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="O6" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="P6" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>2001</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="U6" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="15">
+        <v>137.18</v>
+      </c>
+      <c r="F7" s="18">
+        <v>222214</v>
+      </c>
+      <c r="G7" s="18">
+        <v>2824</v>
+      </c>
+      <c r="H7" s="18">
+        <v>219390</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K7" s="25">
+        <v>45772</v>
+      </c>
+      <c r="L7" s="18">
+        <v>1859</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="N7" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="P7" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>1969</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="15">
+        <v>198</v>
+      </c>
+      <c r="F8" s="18">
+        <v>180521</v>
+      </c>
+      <c r="G8" s="18">
+        <v>-4092</v>
+      </c>
+      <c r="H8" s="18">
+        <v>178284</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" s="25">
+        <v>45767</v>
+      </c>
+      <c r="L8" s="18">
+        <v>4170</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="N8" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="O8" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="P8" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>1930</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="15">
+        <v>164.56</v>
+      </c>
+      <c r="F9" s="18">
+        <v>182826</v>
+      </c>
+      <c r="G9" s="18">
+        <v>-1334</v>
+      </c>
+      <c r="H9" s="18">
+        <v>184160.16</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" s="25">
+        <v>45775</v>
+      </c>
+      <c r="L9" s="18">
+        <v>10629</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="N9" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>1985</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="U9" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="15">
+        <v>176.07</v>
+      </c>
+      <c r="F10" s="18">
+        <v>145082</v>
+      </c>
+      <c r="G10" s="18">
+        <v>2846</v>
+      </c>
+      <c r="H10" s="18">
+        <v>142236</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="K10" s="28">
+        <v>45700</v>
+      </c>
+      <c r="L10" s="18">
+        <v>6645</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="O10" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="P10" s="16">
+        <v>0.47</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>1967</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="U10" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="T11" s="14"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="25"/>
+      <c r="T12" s="14"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="25"/>
+      <c r="T13" s="14"/>
+    </row>
+    <row r="14" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="15">
+        <v>22.14</v>
+      </c>
+      <c r="F14" s="18">
+        <v>95202</v>
+      </c>
+      <c r="G14" s="18">
+        <v>-24825</v>
+      </c>
+      <c r="H14" s="18">
+        <v>120027</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" s="25">
+        <v>45769</v>
+      </c>
+      <c r="L14" s="18">
+        <v>-30584</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="N14" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="O14" s="16">
+        <v>-0.06</v>
+      </c>
+      <c r="P14" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>1968</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="S14" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="T14" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="U14" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="V14" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="25"/>
+      <c r="T15" s="14"/>
+    </row>
+    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="15">
+        <v>69.22</v>
+      </c>
+      <c r="F16" s="18">
+        <v>83410</v>
+      </c>
+      <c r="G16" s="18">
+        <v>-3901</v>
+      </c>
+      <c r="H16" s="18">
+        <v>87311</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" s="25">
+        <v>45768</v>
+      </c>
+      <c r="L16" s="18">
+        <v>2370</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="N16" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="O16" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="P16" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>1932</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="U16" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="V16" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" s="14"/>
-    </row>
-    <row r="4" spans="2:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="15">
-        <v>197</v>
-      </c>
-      <c r="E4" s="18">
-        <v>1021642</v>
-      </c>
-      <c r="F4" s="18">
-        <v>56141</v>
-      </c>
-      <c r="G4" s="18">
-        <v>965501</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="W4" s="14"/>
-    </row>
-    <row r="5" spans="2:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="15">
-        <v>242</v>
-      </c>
-      <c r="E5" s="18">
-        <v>1133082.25</v>
-      </c>
-      <c r="F5" s="18">
-        <v>-58218</v>
-      </c>
-      <c r="G5" s="18">
-        <v>1191300.25</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="W5" s="14"/>
-    </row>
-    <row r="6" spans="2:25" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="15">
-        <v>713.1</v>
-      </c>
-      <c r="E6" s="18">
-        <v>240248</v>
-      </c>
-      <c r="F6" s="18">
-        <v>411</v>
-      </c>
-      <c r="G6" s="18">
-        <v>297483</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="S6" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="V6" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="W6" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="X6" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="15">
-        <v>137.18</v>
-      </c>
-      <c r="E7" s="18">
-        <v>222214</v>
-      </c>
-      <c r="F7" s="18">
-        <v>2824</v>
-      </c>
-      <c r="G7" s="18">
-        <v>219390</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="R7" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="S7" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="T7" s="14">
-        <v>1969</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y7" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="15">
-        <v>198</v>
-      </c>
-      <c r="E8" s="18">
-        <v>180521</v>
-      </c>
-      <c r="F8" s="18">
-        <v>-4092</v>
-      </c>
-      <c r="G8" s="18">
-        <v>178284</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18">
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="25"/>
+      <c r="T17" s="14"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="25"/>
+      <c r="T18" s="14"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="25"/>
+      <c r="T19" s="14"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="25"/>
+      <c r="T20" s="14"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="25"/>
+      <c r="T21" s="14"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" s="25"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" s="25"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26" s="25"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27" s="25"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="16">
-        <v>0.04</v>
-      </c>
-      <c r="R8" s="6"/>
-      <c r="S8" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="T8" s="14">
-        <v>1930</v>
-      </c>
-      <c r="U8" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="V8" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="W8" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y8" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="2:25" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="15">
-        <v>164.56</v>
-      </c>
-      <c r="E9" s="18">
-        <v>182826</v>
-      </c>
-      <c r="F9" s="18">
-        <v>-1334</v>
-      </c>
-      <c r="G9" s="18">
-        <v>184160.16</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="15">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R9" s="16">
-        <v>0</v>
-      </c>
-      <c r="S9" s="16">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="T9" s="14">
-        <v>1985</v>
-      </c>
-      <c r="U9" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="V9" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="W9" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="X9" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y9" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="2:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="W10" s="14"/>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="W11" s="14"/>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="W12" s="14"/>
-    </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="W13" s="14"/>
-    </row>
-    <row r="14" spans="2:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="15">
-        <v>22.14</v>
-      </c>
-      <c r="E14" s="18">
-        <v>95202</v>
-      </c>
-      <c r="F14" s="18">
-        <v>-24825</v>
-      </c>
-      <c r="G14" s="18">
-        <v>120027</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="O14" s="16">
-        <v>0</v>
-      </c>
-      <c r="P14" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="R14" s="16">
-        <v>-0.06</v>
-      </c>
-      <c r="S14" s="16">
-        <v>0.35</v>
-      </c>
-      <c r="T14" s="14">
-        <v>1968</v>
-      </c>
-      <c r="U14" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="V14" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="W14" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="X14" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y14" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="W15" s="14"/>
-    </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="W16" s="14"/>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="W17" s="14"/>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="W18" s="14"/>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="W19" s="14"/>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W20" s="14"/>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="7" t="s">
+      <c r="D28" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="25"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="W21" s="14"/>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="7" t="s">
+      <c r="C29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="25"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B23" s="7" t="s">
+      <c r="C30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K30" s="25"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B24" s="7" t="s">
+      <c r="C31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K31" s="25"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B29" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B32" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B33" s="20"/>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B34" s="10"/>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B45" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="W46" s="6" t="s">
+      <c r="D32" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="X46" s="19" t="s">
-        <v>82</v>
+      <c r="K32" s="25"/>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C33" s="20"/>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C34" s="10"/>
+    </row>
+    <row r="45" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C45" s="10"/>
+    </row>
+    <row r="46" spans="3:21" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="T46" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="U46" s="19" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{B4C30487-2386-48B5-BC35-57AE0B427446}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{BA6EEE5F-BC2F-48AA-B69D-22C198DE6E0F}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{4082B68D-A31A-4923-8B7C-88B6E878C55B}"/>
-    <hyperlink ref="X46" r:id="rId4" xr:uid="{77589FE6-ED44-4B9B-835D-2C2A1F299A48}"/>
-    <hyperlink ref="X6" r:id="rId5" xr:uid="{10D205E2-D156-B14D-8C9C-D43EBD7802E9}"/>
-    <hyperlink ref="B9" r:id="rId6" xr:uid="{DB4D58A9-353A-4894-86CC-8F96838F46F7}"/>
-    <hyperlink ref="X9" r:id="rId7" xr:uid="{62391CAA-727D-4EB5-9594-B98D3CF875D3}"/>
-    <hyperlink ref="B14" r:id="rId8" xr:uid="{09E5A0ED-9E83-40A4-9AD8-690D6FFC9903}"/>
-    <hyperlink ref="X14" r:id="rId9" xr:uid="{8CD8FABA-87BC-4A66-8C67-1D4D49EBD343}"/>
-    <hyperlink ref="B4" r:id="rId10" xr:uid="{57F11887-FE02-4E2B-A0BA-FDB97CC13015}"/>
-    <hyperlink ref="B5" r:id="rId11" xr:uid="{CB070B57-B863-46E0-B29A-E5F50539B390}"/>
-    <hyperlink ref="B10" r:id="rId12" xr:uid="{2D849DA9-67F2-4140-B503-355E8CD8E679}"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{B4C30487-2386-48B5-BC35-57AE0B427446}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{BA6EEE5F-BC2F-48AA-B69D-22C198DE6E0F}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{4082B68D-A31A-4923-8B7C-88B6E878C55B}"/>
+    <hyperlink ref="U46" r:id="rId4" xr:uid="{77589FE6-ED44-4B9B-835D-2C2A1F299A48}"/>
+    <hyperlink ref="U6" r:id="rId5" xr:uid="{10D205E2-D156-B14D-8C9C-D43EBD7802E9}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{DB4D58A9-353A-4894-86CC-8F96838F46F7}"/>
+    <hyperlink ref="U9" r:id="rId7" xr:uid="{62391CAA-727D-4EB5-9594-B98D3CF875D3}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{09E5A0ED-9E83-40A4-9AD8-690D6FFC9903}"/>
+    <hyperlink ref="U14" r:id="rId9" xr:uid="{8CD8FABA-87BC-4A66-8C67-1D4D49EBD343}"/>
+    <hyperlink ref="C4" r:id="rId10" xr:uid="{57F11887-FE02-4E2B-A0BA-FDB97CC13015}"/>
+    <hyperlink ref="C5" r:id="rId11" xr:uid="{CB070B57-B863-46E0-B29A-E5F50539B390}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{694D4E88-E98B-4449-9B55-A2AAB471E6AB}"/>
+    <hyperlink ref="U16" r:id="rId13" xr:uid="{CA3E3634-1072-45D5-B902-A5B8B06A9306}"/>
+    <hyperlink ref="U5" r:id="rId14" xr:uid="{6B53EA5C-BA33-4E07-96F4-0C784AD9628F}"/>
+    <hyperlink ref="U4" r:id="rId15" xr:uid="{78471BF1-946C-4E08-A9A6-43E7AEB8ADA6}"/>
+    <hyperlink ref="C10" r:id="rId16" xr:uid="{A46093E0-B6FA-4EAD-A022-1B0DE4E8E8E0}"/>
+    <hyperlink ref="U10" r:id="rId17" xr:uid="{57438869-704E-4E65-A9F2-B7F0FF599AA2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId13"/>
+  <legacyDrawing r:id="rId18"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CC9FD5-CD95-4AD0-9E41-2135BEAF6BCC}">
+  <dimension ref="A2:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFB390C-03ED-4F10-AF51-E20B40CA3CF7}">
   <dimension ref="B2:H2"/>
   <sheetViews>
@@ -1869,25 +2398,25 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1895,12 +2424,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06702C0-4D20-4B5D-8A88-4EB92861938A}">
-  <dimension ref="B2:E34"/>
+  <dimension ref="B2:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1912,242 +2441,250 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2156,7 +2693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E6F4AB-3DDA-4F20-B8BD-3E0EFF5E81D4}">
   <dimension ref="B17:D21"/>
   <sheetViews>
@@ -2171,10 +2708,10 @@
   <sheetData>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
@@ -2217,4 +2754,28 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D55894-1911-4504-9C44-EE9C123EF493}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCA19E4-EA20-4BE0-B039-E079C8A486AA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Semiconductors.xlsx
+++ b/Semiconductors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Documents\GitHub\Financial-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472AADAD-02E2-4E64-B58C-00BC9B504AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9116A2-E1EA-4C5E-9C7C-3C1324A8C627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="765" windowWidth="19515" windowHeight="14340" xr2:uid="{735B6C94-CC57-4CB9-95AA-FA4CA3A07A07}"/>
+    <workbookView xWindow="8985" yWindow="885" windowWidth="19515" windowHeight="14340" xr2:uid="{735B6C94-CC57-4CB9-95AA-FA4CA3A07A07}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2351,7 +2351,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Semiconductors.xlsx
+++ b/Semiconductors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Documents\GitHub\Financial-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9116A2-E1EA-4C5E-9C7C-3C1324A8C627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D99419-179D-4213-873B-C06BBB19DA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8985" yWindow="885" windowWidth="19515" windowHeight="14340" xr2:uid="{735B6C94-CC57-4CB9-95AA-FA4CA3A07A07}"/>
+    <workbookView xWindow="6960" yWindow="1095" windowWidth="21495" windowHeight="14340" xr2:uid="{735B6C94-CC57-4CB9-95AA-FA4CA3A07A07}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <author>Kipp</author>
   </authors>
   <commentList>
-    <comment ref="T9" authorId="0" shapeId="0" xr:uid="{7ED3F859-B43E-4CFA-B2DD-CC86336259BA}">
+    <comment ref="R9" authorId="0" shapeId="0" xr:uid="{7ED3F859-B43E-4CFA-B2DD-CC86336259BA}">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="197">
   <si>
     <t>Company</t>
   </si>
@@ -514,12 +514,6 @@
     <t>Intelligent Computing</t>
   </si>
   <si>
-    <t>P/E</t>
-  </si>
-  <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
     <t>EV</t>
   </si>
   <si>
@@ -529,9 +523,6 @@
     <t>Next earnings</t>
   </si>
   <si>
-    <t>2024 E</t>
-  </si>
-  <si>
     <t>INTC US</t>
   </si>
   <si>
@@ -562,15 +553,6 @@
     <t>Q424</t>
   </si>
   <si>
-    <t>36x</t>
-  </si>
-  <si>
-    <t>16x</t>
-  </si>
-  <si>
-    <t>34x</t>
-  </si>
-  <si>
     <t>Connecticut</t>
   </si>
   <si>
@@ -601,24 +583,15 @@
     <t>118x</t>
   </si>
   <si>
-    <t>103x</t>
-  </si>
-  <si>
     <t>45x</t>
   </si>
   <si>
     <t>96x</t>
   </si>
   <si>
-    <t>93x</t>
-  </si>
-  <si>
     <t>26x</t>
   </si>
   <si>
-    <t>30x</t>
-  </si>
-  <si>
     <t>San Jose</t>
   </si>
   <si>
@@ -667,9 +640,6 @@
     <t>21x</t>
   </si>
   <si>
-    <t>22x</t>
-  </si>
-  <si>
     <t>Gary E. Dickerson</t>
   </si>
   <si>
@@ -683,6 +653,21 @@
   </si>
   <si>
     <t>CPUs, GPUs etc</t>
+  </si>
+  <si>
+    <t>Upside</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Memory device provider</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Sanjay Mehrotra</t>
   </si>
 </sst>
 </file>
@@ -802,18 +787,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -888,7 +867,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1319,13 +1298,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE21DC86-AFE2-4C1C-A484-F9CB4A3AF3F8}">
-  <dimension ref="A2:W46"/>
+  <dimension ref="A2:U46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1335,23 +1314,22 @@
     <col min="3" max="3" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="14" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="15" customWidth="1"/>
-    <col min="6" max="9" width="14.85546875" style="18" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="14" customWidth="1"/>
-    <col min="11" max="11" width="19" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="18" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="14" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="16" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" style="14" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="14"/>
-    <col min="18" max="18" width="12.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.28515625" style="6" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="6"/>
+    <col min="6" max="8" width="14.85546875" style="18" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="19" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="14" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="16" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="14" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="14"/>
+    <col min="16" max="16" width="12.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" style="6" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="C2" s="10" t="s">
         <v>0</v>
@@ -1366,55 +1344,49 @@
         <v>3</v>
       </c>
       <c r="G2" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="J2" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>148</v>
-      </c>
       <c r="K2" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>150</v>
+        <v>192</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>66</v>
+        <v>4</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1422,17 +1394,17 @@
         <v>9</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="T3" s="14"/>
-    </row>
-    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="R3" s="14"/>
+    </row>
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>+A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>10</v>
@@ -1447,67 +1419,59 @@
         <v>1021642</v>
       </c>
       <c r="G4" s="18">
-        <v>56141</v>
-      </c>
-      <c r="H4" s="18">
         <v>965501</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="H4" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="24">
+        <v>45762</v>
+      </c>
+      <c r="K4" s="24"/>
+      <c r="L4" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M4" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="N4" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="O4" s="14">
+        <v>1987</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q4" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="K4" s="24">
-        <v>45762</v>
-      </c>
-      <c r="L4" s="18">
-        <v>36479</v>
-      </c>
-      <c r="M4" s="14" t="s">
+      <c r="R4" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="N4" s="16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O4" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="P4" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="Q4" s="14">
-        <v>1987</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="U4" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="S4" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f t="shared" ref="A5:A32" si="0">+A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E5" s="15">
         <v>214.17</v>
@@ -1516,67 +1480,59 @@
         <v>1003018</v>
       </c>
       <c r="G5" s="18">
-        <v>-58218</v>
-      </c>
-      <c r="H5" s="18">
         <v>1191300.25</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="K5" s="24">
+      <c r="H5" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="24">
         <v>45720</v>
       </c>
-      <c r="L5" s="18">
-        <v>12445</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>177</v>
+      <c r="K5" s="24"/>
+      <c r="L5" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M5" s="16">
+        <v>0.3</v>
       </c>
       <c r="N5" s="16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O5" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="P5" s="16">
         <v>0.7</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="O5" s="14">
         <v>2018</v>
       </c>
+      <c r="P5" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>172</v>
+      </c>
       <c r="R5" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="T5" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="U5" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="S5" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E6" s="15">
         <v>713.1</v>
@@ -1585,67 +1541,59 @@
         <v>240248</v>
       </c>
       <c r="G6" s="18">
-        <v>411</v>
-      </c>
-      <c r="H6" s="18">
         <v>297483</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="K6" s="24">
+      <c r="H6" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J6" s="24">
         <v>45762</v>
       </c>
-      <c r="L6" s="18">
-        <v>6595</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>175</v>
+      <c r="K6" s="24"/>
+      <c r="L6" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="M6" s="16">
+        <v>-0.1</v>
       </c>
       <c r="N6" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="O6" s="16">
-        <v>-0.1</v>
-      </c>
-      <c r="P6" s="16">
         <v>0.5</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="O6" s="14">
         <v>2001</v>
       </c>
+      <c r="P6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="R6" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="T6" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="S6" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="T6" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E7" s="15">
         <v>137.18</v>
@@ -1654,64 +1602,56 @@
         <v>222214</v>
       </c>
       <c r="G7" s="18">
-        <v>2824</v>
-      </c>
-      <c r="H7" s="18">
         <v>219390</v>
       </c>
-      <c r="I7" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="K7" s="25">
+      <c r="H7" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J7" s="25">
         <v>45772</v>
       </c>
-      <c r="L7" s="18">
-        <v>1859</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>174</v>
+      <c r="K7" s="25"/>
+      <c r="L7" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0.18</v>
       </c>
       <c r="N7" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="O7" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="P7" s="16">
         <v>0.5</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="O7" s="14">
         <v>1969</v>
       </c>
+      <c r="P7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="R7" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="T7" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="V7" s="6" t="s">
+      <c r="T7" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E8" s="15">
         <v>198</v>
@@ -1720,64 +1660,56 @@
         <v>180521</v>
       </c>
       <c r="G8" s="18">
-        <v>-4092</v>
-      </c>
-      <c r="H8" s="18">
         <v>178284</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="K8" s="25">
+      <c r="H8" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J8" s="25">
         <v>45767</v>
       </c>
-      <c r="L8" s="18">
-        <v>4170</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>163</v>
+      <c r="K8" s="25"/>
+      <c r="L8" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="M8" s="16">
+        <v>-0.1</v>
       </c>
       <c r="N8" s="16">
-        <v>0.04</v>
-      </c>
-      <c r="O8" s="16">
-        <v>-0.1</v>
-      </c>
-      <c r="P8" s="16">
         <v>0.6</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="O8" s="14">
         <v>1930</v>
       </c>
+      <c r="P8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="R8" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="T8" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="V8" s="6" t="s">
+      <c r="T8" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E9" s="15">
         <v>164.56</v>
@@ -1786,59 +1718,54 @@
         <v>182826</v>
       </c>
       <c r="G9" s="18">
-        <v>-1334</v>
-      </c>
-      <c r="H9" s="18">
         <v>184160.16</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="K9" s="25">
+      <c r="H9" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" s="25">
         <v>45775</v>
       </c>
-      <c r="L9" s="18">
-        <v>10629</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>162</v>
+      <c r="K9" s="25"/>
+      <c r="L9" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M9" s="16">
+        <v>0</v>
       </c>
       <c r="N9" s="16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O9" s="16">
-        <v>0</v>
-      </c>
-      <c r="P9" s="16">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="O9" s="14">
         <v>1985</v>
       </c>
+      <c r="P9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>143</v>
+      </c>
       <c r="R9" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="S9" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="T9" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="U9" s="19" t="s">
+      <c r="S9" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="V9" s="6" t="s">
+      <c r="T9" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="B10" s="6" t="s">
+        <v>162</v>
+      </c>
       <c r="C10" s="27" t="s">
         <v>16</v>
       </c>
@@ -1852,77 +1779,120 @@
         <v>145082</v>
       </c>
       <c r="G10" s="18">
-        <v>2846</v>
-      </c>
-      <c r="H10" s="18">
         <v>142236</v>
       </c>
-      <c r="I10" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="K10" s="28">
+      <c r="H10" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="J10" s="28">
         <v>45700</v>
       </c>
-      <c r="L10" s="18">
-        <v>6645</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="O10" s="16">
+      <c r="K10" s="28"/>
+      <c r="M10" s="16">
         <v>0.02</v>
       </c>
-      <c r="P10" s="16">
+      <c r="N10" s="16">
         <v>0.47</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="O10" s="14">
         <v>1967</v>
       </c>
+      <c r="P10" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>187</v>
+      </c>
       <c r="R10" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="S10" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="T10" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="U10" s="22" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="S10" s="22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>40</v>
       </c>
+      <c r="E11" s="15">
+        <v>167.6</v>
+      </c>
+      <c r="F11" s="18">
+        <v>173932</v>
+      </c>
+      <c r="G11" s="18">
+        <v>171261</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="25">
+        <v>45782</v>
+      </c>
       <c r="K11" s="25"/>
-      <c r="T11" s="14"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R11" s="14"/>
+    </row>
+    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="21" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>41</v>
       </c>
+      <c r="E12" s="15">
+        <v>97.05</v>
+      </c>
+      <c r="F12" s="18">
+        <v>108542.62961544</v>
+      </c>
+      <c r="G12" s="18">
+        <v>114739.62961544</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="J12" s="25"/>
       <c r="K12" s="25"/>
-      <c r="T12" s="14"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M12" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="N12" s="16">
+        <v>0.37</v>
+      </c>
+      <c r="O12" s="14">
+        <v>1978</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1933,22 +1903,23 @@
       <c r="D13" s="14" t="s">
         <v>42</v>
       </c>
+      <c r="J13" s="25"/>
       <c r="K13" s="25"/>
-      <c r="T13" s="14"/>
-    </row>
-    <row r="14" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="R13" s="14"/>
+    </row>
+    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E14" s="15">
         <v>22.14</v>
@@ -1957,55 +1928,47 @@
         <v>95202</v>
       </c>
       <c r="G14" s="18">
-        <v>-24825</v>
-      </c>
-      <c r="H14" s="18">
         <v>120027</v>
       </c>
-      <c r="I14" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="J14" s="14" t="s">
+      <c r="H14" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" s="25">
+        <v>45769</v>
+      </c>
+      <c r="K14" s="25"/>
+      <c r="L14" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="M14" s="16">
+        <v>-0.06</v>
+      </c>
+      <c r="N14" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="O14" s="14">
+        <v>1968</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="S14" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="T14" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="K14" s="25">
-        <v>45769</v>
-      </c>
-      <c r="L14" s="18">
-        <v>-30584</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="N14" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="O14" s="16">
-        <v>-0.06</v>
-      </c>
-      <c r="P14" s="16">
-        <v>0.35</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>1968</v>
-      </c>
-      <c r="R14" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="S14" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="T14" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="U14" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="V14" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2016,16 +1979,17 @@
       <c r="D15" s="14" t="s">
         <v>43</v>
       </c>
+      <c r="J15" s="25"/>
       <c r="K15" s="25"/>
-      <c r="T15" s="14"/>
-    </row>
-    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="R15" s="14"/>
+    </row>
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>22</v>
@@ -2040,55 +2004,47 @@
         <v>83410</v>
       </c>
       <c r="G16" s="18">
-        <v>-3901</v>
-      </c>
-      <c r="H16" s="18">
         <v>87311</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="H16" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" s="25">
+        <v>45768</v>
+      </c>
+      <c r="K16" s="25"/>
+      <c r="L16" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="M16" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="N16" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="O16" s="14">
+        <v>1932</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q16" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="R16" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="S16" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="K16" s="25">
-        <v>45768</v>
-      </c>
-      <c r="L16" s="18">
-        <v>2370</v>
-      </c>
-      <c r="M16" s="14" t="s">
+      <c r="T16" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="N16" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="O16" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="P16" s="16">
-        <v>0.35</v>
-      </c>
-      <c r="Q16" s="14">
-        <v>1932</v>
-      </c>
-      <c r="R16" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="S16" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="T16" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="U16" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="V16" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2099,10 +2055,11 @@
       <c r="D17" s="14" t="s">
         <v>45</v>
       </c>
+      <c r="J17" s="25"/>
       <c r="K17" s="25"/>
-      <c r="T17" s="14"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R17" s="14"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2113,10 +2070,11 @@
       <c r="D18" s="14" t="s">
         <v>46</v>
       </c>
+      <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="T18" s="14"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R18" s="14"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2127,10 +2085,11 @@
       <c r="D19" s="14" t="s">
         <v>47</v>
       </c>
+      <c r="J19" s="25"/>
       <c r="K19" s="25"/>
-      <c r="T19" s="14"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R19" s="14"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2141,10 +2100,11 @@
       <c r="D20" s="14" t="s">
         <v>48</v>
       </c>
+      <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="T20" s="14"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R20" s="14"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2155,10 +2115,11 @@
       <c r="D21" s="14" t="s">
         <v>49</v>
       </c>
+      <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="T21" s="14"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R21" s="14"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2169,9 +2130,10 @@
       <c r="D22" s="14" t="s">
         <v>50</v>
       </c>
+      <c r="J22" s="25"/>
       <c r="K22" s="25"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2182,9 +2144,10 @@
       <c r="D23" s="14" t="s">
         <v>51</v>
       </c>
+      <c r="J23" s="25"/>
       <c r="K23" s="25"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2195,9 +2158,10 @@
       <c r="D24" s="14" t="s">
         <v>52</v>
       </c>
+      <c r="J24" s="25"/>
       <c r="K24" s="25"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2208,9 +2172,10 @@
       <c r="D25" s="14" t="s">
         <v>53</v>
       </c>
+      <c r="J25" s="25"/>
       <c r="K25" s="25"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2221,9 +2186,10 @@
       <c r="D26" s="14" t="s">
         <v>54</v>
       </c>
+      <c r="J26" s="25"/>
       <c r="K26" s="25"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2234,9 +2200,10 @@
       <c r="D27" s="14" t="s">
         <v>55</v>
       </c>
+      <c r="J27" s="25"/>
       <c r="K27" s="25"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2247,9 +2214,10 @@
       <c r="D28" s="14" t="s">
         <v>56</v>
       </c>
+      <c r="J28" s="25"/>
       <c r="K28" s="25"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2260,9 +2228,10 @@
       <c r="D29" s="14" t="s">
         <v>57</v>
       </c>
+      <c r="J29" s="25"/>
       <c r="K29" s="25"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2273,9 +2242,10 @@
       <c r="D30" s="14" t="s">
         <v>58</v>
       </c>
+      <c r="J30" s="25"/>
       <c r="K30" s="25"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2286,9 +2256,10 @@
       <c r="D31" s="14" t="s">
         <v>59</v>
       </c>
+      <c r="J31" s="25"/>
       <c r="K31" s="25"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2299,22 +2270,23 @@
       <c r="D32" s="14" t="s">
         <v>83</v>
       </c>
+      <c r="J32" s="25"/>
       <c r="K32" s="25"/>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C33" s="20"/>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C34" s="10"/>
     </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C45" s="10"/>
     </row>
-    <row r="46" spans="3:21" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="T46" s="6" t="s">
+    <row r="46" spans="3:19" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="R46" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="U46" s="19" t="s">
+      <c r="S46" s="19" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2323,23 +2295,25 @@
     <hyperlink ref="C8" r:id="rId1" xr:uid="{B4C30487-2386-48B5-BC35-57AE0B427446}"/>
     <hyperlink ref="C7" r:id="rId2" xr:uid="{BA6EEE5F-BC2F-48AA-B69D-22C198DE6E0F}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{4082B68D-A31A-4923-8B7C-88B6E878C55B}"/>
-    <hyperlink ref="U46" r:id="rId4" xr:uid="{77589FE6-ED44-4B9B-835D-2C2A1F299A48}"/>
-    <hyperlink ref="U6" r:id="rId5" xr:uid="{10D205E2-D156-B14D-8C9C-D43EBD7802E9}"/>
+    <hyperlink ref="S46" r:id="rId4" xr:uid="{77589FE6-ED44-4B9B-835D-2C2A1F299A48}"/>
+    <hyperlink ref="S6" r:id="rId5" xr:uid="{10D205E2-D156-B14D-8C9C-D43EBD7802E9}"/>
     <hyperlink ref="C9" r:id="rId6" xr:uid="{DB4D58A9-353A-4894-86CC-8F96838F46F7}"/>
-    <hyperlink ref="U9" r:id="rId7" xr:uid="{62391CAA-727D-4EB5-9594-B98D3CF875D3}"/>
+    <hyperlink ref="S9" r:id="rId7" xr:uid="{62391CAA-727D-4EB5-9594-B98D3CF875D3}"/>
     <hyperlink ref="C14" r:id="rId8" xr:uid="{09E5A0ED-9E83-40A4-9AD8-690D6FFC9903}"/>
-    <hyperlink ref="U14" r:id="rId9" xr:uid="{8CD8FABA-87BC-4A66-8C67-1D4D49EBD343}"/>
+    <hyperlink ref="S14" r:id="rId9" xr:uid="{8CD8FABA-87BC-4A66-8C67-1D4D49EBD343}"/>
     <hyperlink ref="C4" r:id="rId10" xr:uid="{57F11887-FE02-4E2B-A0BA-FDB97CC13015}"/>
     <hyperlink ref="C5" r:id="rId11" xr:uid="{CB070B57-B863-46E0-B29A-E5F50539B390}"/>
     <hyperlink ref="C16" r:id="rId12" xr:uid="{694D4E88-E98B-4449-9B55-A2AAB471E6AB}"/>
-    <hyperlink ref="U16" r:id="rId13" xr:uid="{CA3E3634-1072-45D5-B902-A5B8B06A9306}"/>
-    <hyperlink ref="U5" r:id="rId14" xr:uid="{6B53EA5C-BA33-4E07-96F4-0C784AD9628F}"/>
-    <hyperlink ref="U4" r:id="rId15" xr:uid="{78471BF1-946C-4E08-A9A6-43E7AEB8ADA6}"/>
+    <hyperlink ref="S16" r:id="rId13" xr:uid="{CA3E3634-1072-45D5-B902-A5B8B06A9306}"/>
+    <hyperlink ref="S5" r:id="rId14" xr:uid="{6B53EA5C-BA33-4E07-96F4-0C784AD9628F}"/>
+    <hyperlink ref="S4" r:id="rId15" xr:uid="{78471BF1-946C-4E08-A9A6-43E7AEB8ADA6}"/>
     <hyperlink ref="C10" r:id="rId16" xr:uid="{A46093E0-B6FA-4EAD-A022-1B0DE4E8E8E0}"/>
-    <hyperlink ref="U10" r:id="rId17" xr:uid="{57438869-704E-4E65-A9F2-B7F0FF599AA2}"/>
+    <hyperlink ref="S10" r:id="rId17" xr:uid="{57438869-704E-4E65-A9F2-B7F0FF599AA2}"/>
+    <hyperlink ref="C11" r:id="rId18" xr:uid="{E081CDE9-C4EC-4A2B-9B6B-905CDFAD61AC}"/>
+    <hyperlink ref="C12" r:id="rId19" xr:uid="{EEFEA437-A440-4702-B1CE-11A40672F887}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId18"/>
+  <legacyDrawing r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -2673,18 +2647,18 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/Semiconductors.xlsx
+++ b/Semiconductors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Documents\GitHub\Financial-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D99419-179D-4213-873B-C06BBB19DA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03544DAE-F73F-4AF7-BD8C-C9708FC697C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="1095" windowWidth="21495" windowHeight="14340" xr2:uid="{735B6C94-CC57-4CB9-95AA-FA4CA3A07A07}"/>
+    <workbookView xWindow="7920" yWindow="1800" windowWidth="18630" windowHeight="11940" activeTab="1" xr2:uid="{735B6C94-CC57-4CB9-95AA-FA4CA3A07A07}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Industry" sheetId="4" r:id="rId5"/>
     <sheet name="Bankrupts" sheetId="5" r:id="rId6"/>
     <sheet name="Acquisitions" sheetId="6" r:id="rId7"/>
+    <sheet name="News-Deals" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="186"/>
           </rPr>
           <t>Kipp:</t>
         </r>
@@ -64,7 +66,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="186"/>
           </rPr>
           <t xml:space="preserve">
 software, semiconductor designs, intellectual property, other services
@@ -77,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="216">
   <si>
     <t>Company</t>
   </si>
@@ -668,6 +671,63 @@
   </si>
   <si>
     <t>Sanjay Mehrotra</t>
+  </si>
+  <si>
+    <t>Tokyo Electron</t>
+  </si>
+  <si>
+    <t>KLA Corp</t>
+  </si>
+  <si>
+    <t>Shin-Etsu Chemical</t>
+  </si>
+  <si>
+    <t>NXP Semiconductor</t>
+  </si>
+  <si>
+    <t>MediaTek</t>
+  </si>
+  <si>
+    <t>Advantest</t>
+  </si>
+  <si>
+    <t>Hygon Information Technology</t>
+  </si>
+  <si>
+    <t>Microchip</t>
+  </si>
+  <si>
+    <t>Hoya</t>
+  </si>
+  <si>
+    <t>Infineon</t>
+  </si>
+  <si>
+    <t>STMicro</t>
+  </si>
+  <si>
+    <t>TCL Zhonghuan</t>
+  </si>
+  <si>
+    <t>On Semiconductor</t>
+  </si>
+  <si>
+    <t>SMIC</t>
+  </si>
+  <si>
+    <t>Enphase Energy</t>
+  </si>
+  <si>
+    <t>Mobileye</t>
+  </si>
+  <si>
+    <t>Pasqal</t>
+  </si>
+  <si>
+    <t>Cerebras</t>
+  </si>
+  <si>
+    <t>IPO</t>
   </si>
 </sst>
 </file>
@@ -677,7 +737,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,42 +809,33 @@
       <charset val="186"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="186"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="186"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="186"/>
     </font>
     <font>
-      <b/>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <color theme="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="186"/>
     </font>
   </fonts>
   <fills count="2">
@@ -795,7 +846,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -803,12 +854,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -827,12 +915,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -848,26 +930,35 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1298,13 +1389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE21DC86-AFE2-4C1C-A484-F9CB4A3AF3F8}">
-  <dimension ref="A2:U46"/>
+  <dimension ref="A2:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1312,18 +1403,18 @@
     <col min="1" max="1" width="3" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" style="6" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="15" customWidth="1"/>
-    <col min="6" max="8" width="14.85546875" style="18" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="14" customWidth="1"/>
-    <col min="10" max="10" width="19" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" style="14" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="16" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" style="14" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="14"/>
-    <col min="16" max="16" width="12.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="13" customWidth="1"/>
+    <col min="6" max="8" width="14.85546875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="19" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="12" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="14" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="12"/>
+    <col min="16" max="16" width="12.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" style="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="29.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.28515625" style="6" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="6"/>
@@ -1331,55 +1422,55 @@
   <sheetData>
     <row r="2" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="29" t="s">
         <v>79</v>
       </c>
       <c r="U2" s="11" t="s">
@@ -1393,12 +1484,12 @@
       <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="R3" s="14"/>
-    </row>
-    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="R3" s="12"/>
+    </row>
+    <row r="4" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f>+A3+1</f>
         <v>2</v>
@@ -1406,121 +1497,121 @@
       <c r="B4" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <v>197</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="16">
         <v>1021642</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="16">
         <v>965501</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="17">
         <v>45762</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="16">
+      <c r="K4" s="17"/>
+      <c r="L4" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="14">
         <v>0.3</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="14">
         <v>0.3</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="12">
         <v>1987</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="S4" s="22" t="s">
+      <c r="S4" s="20" t="s">
         <v>180</v>
       </c>
       <c r="U4" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
-        <f t="shared" ref="A5:A32" si="0">+A4+1</f>
+        <f t="shared" ref="A5:A49" si="0">+A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <v>214.17</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="16">
         <v>1003018</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="16">
         <v>1191300.25</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="17">
         <v>45720</v>
       </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="16">
+      <c r="K5" s="17"/>
+      <c r="L5" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="14">
         <v>0.3</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="14">
         <v>0.7</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="12">
         <v>2018</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="S5" s="22" t="s">
+      <c r="S5" s="20" t="s">
         <v>173</v>
       </c>
       <c r="U5" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1528,53 +1619,53 @@
       <c r="B6" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <v>713.1</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="16">
         <v>240248</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="16">
         <v>297483</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="17">
         <v>45762</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="16">
+      <c r="K6" s="17"/>
+      <c r="L6" s="14">
         <v>0.05</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="14">
         <v>-0.1</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="14">
         <v>0.5</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="12">
         <v>2001</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="S6" s="19" t="s">
+      <c r="S6" s="21" t="s">
         <v>80</v>
       </c>
       <c r="T6" s="6" t="s">
@@ -1589,50 +1680,50 @@
       <c r="B7" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <v>137.18</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="16">
         <v>222214</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="16">
         <v>219390</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="18">
         <v>45772</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="16">
+      <c r="K7" s="18"/>
+      <c r="L7" s="14">
         <v>0.08</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="14">
         <v>0.18</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="14">
         <v>0.5</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="12">
         <v>1969</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="R7" s="12" t="s">
         <v>69</v>
       </c>
       <c r="T7" s="6" t="s">
@@ -1647,57 +1738,57 @@
       <c r="B8" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <v>198</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="16">
         <v>180521</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="16">
         <v>178284</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="18">
         <v>45767</v>
       </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="16">
+      <c r="K8" s="18"/>
+      <c r="L8" s="14">
         <v>0.04</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="14">
         <v>-0.1</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="14">
         <v>0.6</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="12">
         <v>1930</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" s="14" t="s">
+      <c r="Q8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="R8" s="14" t="s">
+      <c r="R8" s="12" t="s">
         <v>60</v>
       </c>
       <c r="T8" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1705,60 +1796,60 @@
       <c r="B9" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="13">
         <v>164.56</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="16">
         <v>182826</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="16">
         <v>184160.16</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="18">
         <v>45775</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="16">
+      <c r="K9" s="18"/>
+      <c r="L9" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="14">
         <v>0</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="14">
         <v>0.56000000000000005</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="12">
         <v>1985</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="Q9" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="R9" s="14" t="s">
+      <c r="R9" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="S9" s="19" t="s">
+      <c r="S9" s="21" t="s">
         <v>142</v>
       </c>
       <c r="T9" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1766,129 +1857,135 @@
       <c r="B10" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="13">
         <v>176.07</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="16">
         <v>145082</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="16">
         <v>142236</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="19">
         <v>45700</v>
       </c>
-      <c r="K10" s="28"/>
-      <c r="M10" s="16">
+      <c r="K10" s="19"/>
+      <c r="M10" s="14">
         <v>0.02</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="14">
         <v>0.47</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="12">
         <v>1967</v>
       </c>
-      <c r="P10" s="14" t="s">
+      <c r="P10" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="Q10" s="14" t="s">
+      <c r="Q10" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="R10" s="14" t="s">
+      <c r="R10" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="S10" s="22" t="s">
+      <c r="S10" s="20" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <v>167.6</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="16">
         <v>173932</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="16">
         <v>171261</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="18">
         <v>45782</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="R11" s="14"/>
-    </row>
-    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="K11" s="18"/>
+      <c r="R11" s="12"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="13">
         <v>97.05</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="16">
         <v>108542.62961544</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="16">
         <v>114739.62961544</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="16">
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="M12" s="14">
         <v>0.8</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="14">
         <v>0.37</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="12">
         <v>1978</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="P12" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="Q12" s="14" t="s">
+      <c r="Q12" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="R12" s="14" t="s">
+      <c r="R12" s="12" t="s">
         <v>194</v>
       </c>
     </row>
@@ -1900,14 +1997,14 @@
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="R13" s="14"/>
-    </row>
-    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="R13" s="12"/>
+    </row>
+    <row r="14" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1915,53 +2012,53 @@
       <c r="B14" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="13">
         <v>22.14</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="16">
         <v>95202</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="16">
         <v>120027</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="18">
         <v>45769</v>
       </c>
-      <c r="K14" s="25"/>
-      <c r="L14" s="16">
+      <c r="K14" s="18"/>
+      <c r="L14" s="14">
         <v>0.1</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="14">
         <v>-0.06</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N14" s="14">
         <v>0.35</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="12">
         <v>1968</v>
       </c>
-      <c r="P14" s="14" t="s">
+      <c r="P14" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="Q14" s="14" t="s">
+      <c r="Q14" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="R14" s="14" t="s">
+      <c r="R14" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="S14" s="22" t="s">
+      <c r="S14" s="20" t="s">
         <v>151</v>
       </c>
       <c r="T14" s="6" t="s">
@@ -1976,14 +2073,14 @@
       <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="R15" s="14"/>
-    </row>
-    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="R15" s="12"/>
+    </row>
+    <row r="16" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1991,53 +2088,53 @@
       <c r="B16" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="13">
         <v>69.22</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="16">
         <v>83410</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="16">
         <v>87311</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="18">
         <v>45768</v>
       </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="16">
+      <c r="K16" s="18"/>
+      <c r="L16" s="14">
         <v>0.05</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="14">
         <v>0.3</v>
       </c>
-      <c r="N16" s="16">
+      <c r="N16" s="14">
         <v>0.35</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O16" s="12">
         <v>1932</v>
       </c>
-      <c r="P16" s="14" t="s">
+      <c r="P16" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="Q16" s="14" t="s">
+      <c r="Q16" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="R16" s="14" t="s">
+      <c r="R16" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="S16" s="22" t="s">
+      <c r="S16" s="20" t="s">
         <v>160</v>
       </c>
       <c r="T16" s="6" t="s">
@@ -2052,12 +2149,12 @@
       <c r="C17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="R17" s="14"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="R17" s="12"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
@@ -2067,12 +2164,12 @@
       <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="R18" s="14"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
@@ -2082,12 +2179,12 @@
       <c r="C19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="R19" s="14"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="R19" s="12"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
@@ -2097,12 +2194,12 @@
       <c r="C20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="R20" s="14"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="R20" s="12"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
@@ -2112,12 +2209,12 @@
       <c r="C21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="R21" s="14"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="R21" s="12"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
@@ -2127,11 +2224,11 @@
       <c r="C22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
@@ -2141,11 +2238,11 @@
       <c r="C23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
@@ -2155,11 +2252,11 @@
       <c r="C24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
@@ -2169,11 +2266,11 @@
       <c r="C25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
@@ -2183,11 +2280,11 @@
       <c r="C26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
@@ -2197,11 +2294,11 @@
       <c r="C27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
@@ -2211,11 +2308,11 @@
       <c r="C28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
@@ -2225,11 +2322,11 @@
       <c r="C29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
@@ -2239,11 +2336,11 @@
       <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
@@ -2253,11 +2350,11 @@
       <c r="C31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
@@ -2267,27 +2364,169 @@
       <c r="C32" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-    </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C33" s="20"/>
-    </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C34" s="10"/>
-    </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C45" s="10"/>
-    </row>
-    <row r="46" spans="3:19" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="R46" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="S46" s="19" t="s">
+      <c r="S46" s="21" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2311,41 +2550,68 @@
     <hyperlink ref="S10" r:id="rId17" xr:uid="{57438869-704E-4E65-A9F2-B7F0FF599AA2}"/>
     <hyperlink ref="C11" r:id="rId18" xr:uid="{E081CDE9-C4EC-4A2B-9B6B-905CDFAD61AC}"/>
     <hyperlink ref="C12" r:id="rId19" xr:uid="{EEFEA437-A440-4702-B1CE-11A40672F887}"/>
+    <hyperlink ref="C48" r:id="rId20" xr:uid="{78EDA808-9C7C-41B5-91F4-E8D9393CF47D}"/>
+    <hyperlink ref="C49" r:id="rId21" xr:uid="{A330CB42-B7E0-4448-A3C8-07F30B86B117}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId20"/>
+  <legacyDrawing r:id="rId22"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CC9FD5-CD95-4AD0-9E41-2135BEAF6BCC}">
-  <dimension ref="A2:C3"/>
+  <dimension ref="A2:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C2" s="26" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E2" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <f>+A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <f>+A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2752,4 +3018,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A86A89B-E72B-41EE-94E6-E40BE3F71ADF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>